--- a/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.676447687524671</v>
+        <v>3.676447687524387</v>
       </c>
       <c r="C2">
-        <v>0.7118360375802411</v>
+        <v>0.7118360375810937</v>
       </c>
       <c r="D2">
-        <v>0.2759289343802891</v>
+        <v>0.2759289343807723</v>
       </c>
       <c r="E2">
-        <v>0.1883956620960703</v>
+        <v>0.1883956620959992</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.04056420451824039</v>
+        <v>0.04056420451820308</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3733778636562377</v>
+        <v>0.3733778636562874</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.127425608555313</v>
+        <v>3.127425608555654</v>
       </c>
       <c r="C3">
-        <v>0.6000805461145831</v>
+        <v>0.6000805461146683</v>
       </c>
       <c r="D3">
-        <v>0.2373890745756313</v>
+        <v>0.2373890745759297</v>
       </c>
       <c r="E3">
-        <v>0.1622563371897741</v>
+        <v>0.1622563371897527</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.797530072397109</v>
+        <v>7.797530072396995</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03496874450328669</v>
+        <v>0.03496874450323872</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3182901451289908</v>
+        <v>0.3182901451289766</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.804249419919586</v>
+        <v>2.804249419919415</v>
       </c>
       <c r="C4">
-        <v>0.5345216586191839</v>
+        <v>0.5345216586183028</v>
       </c>
       <c r="D4">
         <v>0.2146048906323159</v>
       </c>
       <c r="E4">
-        <v>0.1468055313199059</v>
+        <v>0.1468055313199557</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.03166167842587697</v>
+        <v>0.03166167842593737</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2858016381625248</v>
+        <v>0.2858016381624608</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>2.675474762768488</v>
       </c>
       <c r="C5">
-        <v>0.5084378231857727</v>
+        <v>0.5084378231866253</v>
       </c>
       <c r="D5">
-        <v>0.2055051648089403</v>
+        <v>0.2055051648089119</v>
       </c>
       <c r="E5">
-        <v>0.1406349724045732</v>
+        <v>0.1406349724047402</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.821198488614016</v>
+        <v>6.821198488614073</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03034098346366321</v>
+        <v>0.03034098346371472</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2728416900813855</v>
+        <v>0.2728416900813357</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.65425307797625</v>
+        <v>2.654253077976136</v>
       </c>
       <c r="C6">
-        <v>0.5041411897249475</v>
+        <v>0.5041411897250612</v>
       </c>
       <c r="D6">
-        <v>0.2040043823447775</v>
+        <v>0.2040043823446496</v>
       </c>
       <c r="E6">
-        <v>0.1396172965411786</v>
+        <v>0.1396172965411502</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.775162179405811</v>
+        <v>6.775162179405697</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03012316966393058</v>
+        <v>0.03012316966392881</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2707050874362977</v>
+        <v>0.2707050874363119</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.802501588053872</v>
+        <v>2.802501588053758</v>
       </c>
       <c r="C7">
-        <v>0.5341674896308461</v>
+        <v>0.5341674896311872</v>
       </c>
       <c r="D7">
-        <v>0.2144814632375329</v>
+        <v>0.2144814632372913</v>
       </c>
       <c r="E7">
-        <v>0.146721833853249</v>
+        <v>0.1467218338530571</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.03164376441552719</v>
+        <v>0.03164376441549877</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.285625792853331</v>
+        <v>0.2856257928532813</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.483875165396285</v>
+        <v>3.483875165396569</v>
       </c>
       <c r="C8">
-        <v>0.672577511197602</v>
+        <v>0.6725775111979999</v>
       </c>
       <c r="D8">
-        <v>0.2624342681911855</v>
+        <v>0.2624342681916687</v>
       </c>
       <c r="E8">
-        <v>0.1792423278339612</v>
+        <v>0.1792423278339754</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.03860469971410296</v>
+        <v>0.0386046997141154</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3540694719415001</v>
+        <v>0.3540694719414716</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.962875265721038</v>
+        <v>4.962875265720868</v>
       </c>
       <c r="C9">
-        <v>0.9760044405645942</v>
+        <v>0.9760044405646511</v>
       </c>
       <c r="D9">
-        <v>0.3654490083333712</v>
+        <v>0.3654490083338828</v>
       </c>
       <c r="E9">
-        <v>0.2491412238109021</v>
+        <v>0.2491412238108666</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.69799650881623</v>
+        <v>11.697996508816</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.05357262777334526</v>
+        <v>0.05357262777331684</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5020297522654147</v>
+        <v>0.5020297522654644</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.195335457156716</v>
+        <v>6.195335457156318</v>
       </c>
       <c r="C10">
-        <v>1.232639841522939</v>
+        <v>1.232639841522968</v>
       </c>
       <c r="D10">
-        <v>0.4502123825295712</v>
+        <v>0.450212382529827</v>
       </c>
       <c r="E10">
-        <v>0.3067072447095001</v>
+        <v>0.3067072447094432</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.27004254298959</v>
+        <v>14.2700425429897</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06590868149519835</v>
+        <v>0.06590868149518414</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.624818988376461</v>
+        <v>0.6248189883764397</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.806687206169102</v>
+        <v>6.806687206168874</v>
       </c>
       <c r="C11">
-        <v>1.361363690873361</v>
+        <v>1.361363690872452</v>
       </c>
       <c r="D11">
-        <v>0.4918966269747216</v>
+        <v>0.4918966269750342</v>
       </c>
       <c r="E11">
-        <v>0.3350362258729618</v>
+        <v>0.3350362258729689</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.53350623449887</v>
+        <v>15.5335062344991</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.07198290611096425</v>
+        <v>0.07198290611099978</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6855777164866126</v>
+        <v>0.6855777164866055</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.047764675689905</v>
+        <v>7.047764675689621</v>
       </c>
       <c r="C12">
-        <v>1.412396307779829</v>
+        <v>1.412396307778863</v>
       </c>
       <c r="D12">
-        <v>0.5082677907964239</v>
+        <v>0.5082677907969071</v>
       </c>
       <c r="E12">
-        <v>0.3461659806542556</v>
+        <v>0.3461659806543693</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.02955835185679</v>
+        <v>16.02955835185645</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.07436998940814021</v>
+        <v>0.07436998940817929</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7095110688178323</v>
+        <v>0.7095110688178252</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.995373507878014</v>
+        <v>6.995373507878298</v>
       </c>
       <c r="C13">
-        <v>1.401292535640835</v>
+        <v>1.401292535641488</v>
       </c>
       <c r="D13">
-        <v>0.5047132014339866</v>
+        <v>0.5047132014343276</v>
       </c>
       <c r="E13">
-        <v>0.3437492479182112</v>
+        <v>0.3437492479182538</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.07385162148289126</v>
+        <v>0.07385162148289481</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.826313018731526</v>
+        <v>6.826313018732208</v>
       </c>
       <c r="C14">
-        <v>1.365512356249297</v>
+        <v>1.365512356248701</v>
       </c>
       <c r="D14">
-        <v>0.4932307911839189</v>
+        <v>0.4932307911843168</v>
       </c>
       <c r="E14">
-        <v>0.3359431617979993</v>
+        <v>0.3359431617979567</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.57393487199249</v>
+        <v>15.57393487199266</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.07217740916825832</v>
+        <v>0.07217740916813042</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6875266426608775</v>
+        <v>0.6875266426608846</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.72408634232437</v>
+        <v>6.724086342324767</v>
       </c>
       <c r="C15">
-        <v>1.343914104437971</v>
+        <v>1.343914104437431</v>
       </c>
       <c r="D15">
-        <v>0.4862786822010889</v>
+        <v>0.4862786822013447</v>
       </c>
       <c r="E15">
         <v>0.3312174248303137</v>
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.36326167752708</v>
+        <v>15.36326167752736</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.07116394719081853</v>
+        <v>0.07116394719085051</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6773740419794194</v>
+        <v>0.677374041979391</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>6.156580399717484</v>
       </c>
       <c r="C16">
-        <v>1.2245124630482</v>
+        <v>1.224512463048001</v>
       </c>
       <c r="D16">
-        <v>0.4475618076561432</v>
+        <v>0.4475618076565979</v>
       </c>
       <c r="E16">
-        <v>0.3049063449937606</v>
+        <v>0.3049063449938103</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.18967841627608</v>
+        <v>14.18967841627662</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.06552261828889172</v>
+        <v>0.06552261828884554</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6209641054840844</v>
+        <v>0.6209641054841128</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.822817817962914</v>
+        <v>5.822817817962516</v>
       </c>
       <c r="C17">
-        <v>1.154676479362109</v>
+        <v>1.154676479361143</v>
       </c>
       <c r="D17">
-        <v>0.4246948794279604</v>
+        <v>0.4246948794281877</v>
       </c>
       <c r="E17">
-        <v>0.2893718899955289</v>
+        <v>0.289371889995472</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.49621853543678</v>
+        <v>13.49621853543673</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.06219284980383222</v>
+        <v>0.06219284980377893</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5877490733096025</v>
+        <v>0.587749073309638</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.635446721393294</v>
+        <v>5.635446721393009</v>
       </c>
       <c r="C18">
-        <v>1.115593446432115</v>
+        <v>1.115593446431603</v>
       </c>
       <c r="D18">
-        <v>0.4118263022567135</v>
+        <v>0.4118263022569693</v>
       </c>
       <c r="E18">
-        <v>0.280631426751313</v>
+        <v>0.2806314267512491</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.1058398028087</v>
+        <v>13.10583980280887</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.06031965685215468</v>
+        <v>0.06031965685212981</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.569089406600078</v>
+        <v>0.5690894065999998</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.57273840569286</v>
+        <v>5.572738405692576</v>
       </c>
       <c r="C19">
-        <v>1.102532679520181</v>
+        <v>1.102532679519982</v>
       </c>
       <c r="D19">
-        <v>0.4075144944426654</v>
+        <v>0.4075144944426086</v>
       </c>
       <c r="E19">
-        <v>0.2777030726596621</v>
+        <v>0.2777030726596053</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.97501474800433</v>
+        <v>12.97501474800436</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.05969212077694408</v>
+        <v>0.05969212077692987</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5628423572183081</v>
+        <v>0.5628423572182797</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.857857149692222</v>
+        <v>5.857857149691824</v>
       </c>
       <c r="C20">
-        <v>1.161994880131545</v>
+        <v>1.161994880131061</v>
       </c>
       <c r="D20">
-        <v>0.4270988704365664</v>
+        <v>0.4270988704363958</v>
       </c>
       <c r="E20">
-        <v>0.2910048382450867</v>
+        <v>0.2910048382450938</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.56913479450455</v>
+        <v>13.56913479450427</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.06254283532703298</v>
+        <v>0.06254283532701521</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5912374722307234</v>
+        <v>0.5912374722307305</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.875688215988703</v>
+        <v>6.87568821598893</v>
       </c>
       <c r="C21">
-        <v>1.375954249147696</v>
+        <v>1.375954249147838</v>
       </c>
       <c r="D21">
-        <v>0.4965862177294014</v>
+        <v>0.4965862177289182</v>
       </c>
       <c r="E21">
-        <v>0.3382241712116922</v>
+        <v>0.3382241712117064</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.67561056861382</v>
+        <v>15.67561056861325</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0726666096625479</v>
+        <v>0.07266660966254079</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6924293822462388</v>
+        <v>0.6924293822462602</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.598412301855603</v>
+        <v>7.598412301855205</v>
       </c>
       <c r="C22">
-        <v>1.529554881547455</v>
+        <v>1.529554881547938</v>
       </c>
       <c r="D22">
-        <v>0.5455194416102529</v>
+        <v>0.5455194416102813</v>
       </c>
       <c r="E22">
-        <v>0.3714993160069966</v>
+        <v>0.3714993160070037</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.15804952167395</v>
+        <v>17.15804952167355</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.07980488509409511</v>
+        <v>0.07980488509409156</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7641237767411226</v>
+        <v>0.7641237767410658</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.206433970020612</v>
+        <v>7.206433970021465</v>
       </c>
       <c r="C23">
-        <v>1.446070124450586</v>
+        <v>1.446070124451069</v>
       </c>
       <c r="D23">
-        <v>0.5190221577637146</v>
+        <v>0.5190221577634304</v>
       </c>
       <c r="E23">
-        <v>0.3534784056436351</v>
+        <v>0.3534784056435853</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.3553798284193</v>
+        <v>16.35537982841919</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0759385523537297</v>
+        <v>0.07593855235383984</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7252553554834691</v>
+        <v>0.7252553554835401</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.842001969782416</v>
+        <v>5.84200196978253</v>
       </c>
       <c r="C24">
-        <v>1.158682948539052</v>
+        <v>1.158682948538655</v>
       </c>
       <c r="D24">
-        <v>0.4260111700723428</v>
+        <v>0.426011170072087</v>
       </c>
       <c r="E24">
-        <v>0.2902659956046278</v>
+        <v>0.290265995604706</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.53614379311213</v>
+        <v>13.53614379311202</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0623844801814748</v>
+        <v>0.06238448018145348</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5896590242414419</v>
+        <v>0.5896590242414135</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.54228848599945</v>
+        <v>4.542288485999848</v>
       </c>
       <c r="C25">
-        <v>0.8892475200608487</v>
+        <v>0.8892475200611898</v>
       </c>
       <c r="D25">
-        <v>0.3362996511244205</v>
+        <v>0.3362996511241079</v>
       </c>
       <c r="E25">
-        <v>0.229356154328805</v>
+        <v>0.2293561543288263</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.8121719044903</v>
+        <v>10.81217190449033</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.04933481958369867</v>
+        <v>0.04933481958367736</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4600272260891671</v>
+        <v>0.4600272260891742</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.676447687524387</v>
+        <v>3.676447687524671</v>
       </c>
       <c r="C2">
-        <v>0.7118360375810937</v>
+        <v>0.7118360375802411</v>
       </c>
       <c r="D2">
-        <v>0.2759289343807723</v>
+        <v>0.2759289343802891</v>
       </c>
       <c r="E2">
-        <v>0.1883956620959992</v>
+        <v>0.1883956620960703</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.04056420451820308</v>
+        <v>0.04056420451824039</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3733778636562874</v>
+        <v>0.3733778636562377</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.127425608555654</v>
+        <v>3.127425608555313</v>
       </c>
       <c r="C3">
-        <v>0.6000805461146683</v>
+        <v>0.6000805461145831</v>
       </c>
       <c r="D3">
-        <v>0.2373890745759297</v>
+        <v>0.2373890745756313</v>
       </c>
       <c r="E3">
-        <v>0.1622563371897527</v>
+        <v>0.1622563371897741</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.797530072396995</v>
+        <v>7.797530072397109</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03496874450323872</v>
+        <v>0.03496874450328669</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3182901451289766</v>
+        <v>0.3182901451289908</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.804249419919415</v>
+        <v>2.804249419919586</v>
       </c>
       <c r="C4">
-        <v>0.5345216586183028</v>
+        <v>0.5345216586191839</v>
       </c>
       <c r="D4">
         <v>0.2146048906323159</v>
       </c>
       <c r="E4">
-        <v>0.1468055313199557</v>
+        <v>0.1468055313199059</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.03166167842593737</v>
+        <v>0.03166167842587697</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2858016381624608</v>
+        <v>0.2858016381625248</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>2.675474762768488</v>
       </c>
       <c r="C5">
-        <v>0.5084378231866253</v>
+        <v>0.5084378231857727</v>
       </c>
       <c r="D5">
-        <v>0.2055051648089119</v>
+        <v>0.2055051648089403</v>
       </c>
       <c r="E5">
-        <v>0.1406349724047402</v>
+        <v>0.1406349724045732</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.821198488614073</v>
+        <v>6.821198488614016</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03034098346371472</v>
+        <v>0.03034098346366321</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2728416900813357</v>
+        <v>0.2728416900813855</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.654253077976136</v>
+        <v>2.65425307797625</v>
       </c>
       <c r="C6">
-        <v>0.5041411897250612</v>
+        <v>0.5041411897249475</v>
       </c>
       <c r="D6">
-        <v>0.2040043823446496</v>
+        <v>0.2040043823447775</v>
       </c>
       <c r="E6">
-        <v>0.1396172965411502</v>
+        <v>0.1396172965411786</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.775162179405697</v>
+        <v>6.775162179405811</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03012316966392881</v>
+        <v>0.03012316966393058</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2707050874363119</v>
+        <v>0.2707050874362977</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.802501588053758</v>
+        <v>2.802501588053872</v>
       </c>
       <c r="C7">
-        <v>0.5341674896311872</v>
+        <v>0.5341674896308461</v>
       </c>
       <c r="D7">
-        <v>0.2144814632372913</v>
+        <v>0.2144814632375329</v>
       </c>
       <c r="E7">
-        <v>0.1467218338530571</v>
+        <v>0.146721833853249</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.03164376441549877</v>
+        <v>0.03164376441552719</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2856257928532813</v>
+        <v>0.285625792853331</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.483875165396569</v>
+        <v>3.483875165396285</v>
       </c>
       <c r="C8">
-        <v>0.6725775111979999</v>
+        <v>0.672577511197602</v>
       </c>
       <c r="D8">
-        <v>0.2624342681916687</v>
+        <v>0.2624342681911855</v>
       </c>
       <c r="E8">
-        <v>0.1792423278339754</v>
+        <v>0.1792423278339612</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0386046997141154</v>
+        <v>0.03860469971410296</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3540694719414716</v>
+        <v>0.3540694719415001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.962875265720868</v>
+        <v>4.962875265721038</v>
       </c>
       <c r="C9">
-        <v>0.9760044405646511</v>
+        <v>0.9760044405645942</v>
       </c>
       <c r="D9">
-        <v>0.3654490083338828</v>
+        <v>0.3654490083333712</v>
       </c>
       <c r="E9">
-        <v>0.2491412238108666</v>
+        <v>0.2491412238109021</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.697996508816</v>
+        <v>11.69799650881623</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.05357262777331684</v>
+        <v>0.05357262777334526</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5020297522654644</v>
+        <v>0.5020297522654147</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.195335457156318</v>
+        <v>6.195335457156716</v>
       </c>
       <c r="C10">
-        <v>1.232639841522968</v>
+        <v>1.232639841522939</v>
       </c>
       <c r="D10">
-        <v>0.450212382529827</v>
+        <v>0.4502123825295712</v>
       </c>
       <c r="E10">
-        <v>0.3067072447094432</v>
+        <v>0.3067072447095001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.2700425429897</v>
+        <v>14.27004254298959</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06590868149518414</v>
+        <v>0.06590868149519835</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6248189883764397</v>
+        <v>0.624818988376461</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.806687206168874</v>
+        <v>6.806687206169102</v>
       </c>
       <c r="C11">
-        <v>1.361363690872452</v>
+        <v>1.361363690873361</v>
       </c>
       <c r="D11">
-        <v>0.4918966269750342</v>
+        <v>0.4918966269747216</v>
       </c>
       <c r="E11">
-        <v>0.3350362258729689</v>
+        <v>0.3350362258729618</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.5335062344991</v>
+        <v>15.53350623449887</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.07198290611099978</v>
+        <v>0.07198290611096425</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6855777164866055</v>
+        <v>0.6855777164866126</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.047764675689621</v>
+        <v>7.047764675689905</v>
       </c>
       <c r="C12">
-        <v>1.412396307778863</v>
+        <v>1.412396307779829</v>
       </c>
       <c r="D12">
-        <v>0.5082677907969071</v>
+        <v>0.5082677907964239</v>
       </c>
       <c r="E12">
-        <v>0.3461659806543693</v>
+        <v>0.3461659806542556</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.02955835185645</v>
+        <v>16.02955835185679</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.07436998940817929</v>
+        <v>0.07436998940814021</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7095110688178252</v>
+        <v>0.7095110688178323</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.995373507878298</v>
+        <v>6.995373507878014</v>
       </c>
       <c r="C13">
-        <v>1.401292535641488</v>
+        <v>1.401292535640835</v>
       </c>
       <c r="D13">
-        <v>0.5047132014343276</v>
+        <v>0.5047132014339866</v>
       </c>
       <c r="E13">
-        <v>0.3437492479182538</v>
+        <v>0.3437492479182112</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.07385162148289481</v>
+        <v>0.07385162148289126</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.826313018732208</v>
+        <v>6.826313018731526</v>
       </c>
       <c r="C14">
-        <v>1.365512356248701</v>
+        <v>1.365512356249297</v>
       </c>
       <c r="D14">
-        <v>0.4932307911843168</v>
+        <v>0.4932307911839189</v>
       </c>
       <c r="E14">
-        <v>0.3359431617979567</v>
+        <v>0.3359431617979993</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.57393487199266</v>
+        <v>15.57393487199249</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.07217740916813042</v>
+        <v>0.07217740916825832</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6875266426608846</v>
+        <v>0.6875266426608775</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.724086342324767</v>
+        <v>6.72408634232437</v>
       </c>
       <c r="C15">
-        <v>1.343914104437431</v>
+        <v>1.343914104437971</v>
       </c>
       <c r="D15">
-        <v>0.4862786822013447</v>
+        <v>0.4862786822010889</v>
       </c>
       <c r="E15">
         <v>0.3312174248303137</v>
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.36326167752736</v>
+        <v>15.36326167752708</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.07116394719085051</v>
+        <v>0.07116394719081853</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.677374041979391</v>
+        <v>0.6773740419794194</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>6.156580399717484</v>
       </c>
       <c r="C16">
-        <v>1.224512463048001</v>
+        <v>1.2245124630482</v>
       </c>
       <c r="D16">
-        <v>0.4475618076565979</v>
+        <v>0.4475618076561432</v>
       </c>
       <c r="E16">
-        <v>0.3049063449938103</v>
+        <v>0.3049063449937606</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.18967841627662</v>
+        <v>14.18967841627608</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.06552261828884554</v>
+        <v>0.06552261828889172</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6209641054841128</v>
+        <v>0.6209641054840844</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.822817817962516</v>
+        <v>5.822817817962914</v>
       </c>
       <c r="C17">
-        <v>1.154676479361143</v>
+        <v>1.154676479362109</v>
       </c>
       <c r="D17">
-        <v>0.4246948794281877</v>
+        <v>0.4246948794279604</v>
       </c>
       <c r="E17">
-        <v>0.289371889995472</v>
+        <v>0.2893718899955289</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.49621853543673</v>
+        <v>13.49621853543678</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.06219284980377893</v>
+        <v>0.06219284980383222</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.587749073309638</v>
+        <v>0.5877490733096025</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.635446721393009</v>
+        <v>5.635446721393294</v>
       </c>
       <c r="C18">
-        <v>1.115593446431603</v>
+        <v>1.115593446432115</v>
       </c>
       <c r="D18">
-        <v>0.4118263022569693</v>
+        <v>0.4118263022567135</v>
       </c>
       <c r="E18">
-        <v>0.2806314267512491</v>
+        <v>0.280631426751313</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.10583980280887</v>
+        <v>13.1058398028087</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.06031965685212981</v>
+        <v>0.06031965685215468</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5690894065999998</v>
+        <v>0.569089406600078</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.572738405692576</v>
+        <v>5.57273840569286</v>
       </c>
       <c r="C19">
-        <v>1.102532679519982</v>
+        <v>1.102532679520181</v>
       </c>
       <c r="D19">
-        <v>0.4075144944426086</v>
+        <v>0.4075144944426654</v>
       </c>
       <c r="E19">
-        <v>0.2777030726596053</v>
+        <v>0.2777030726596621</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.97501474800436</v>
+        <v>12.97501474800433</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.05969212077692987</v>
+        <v>0.05969212077694408</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5628423572182797</v>
+        <v>0.5628423572183081</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.857857149691824</v>
+        <v>5.857857149692222</v>
       </c>
       <c r="C20">
-        <v>1.161994880131061</v>
+        <v>1.161994880131545</v>
       </c>
       <c r="D20">
-        <v>0.4270988704363958</v>
+        <v>0.4270988704365664</v>
       </c>
       <c r="E20">
-        <v>0.2910048382450938</v>
+        <v>0.2910048382450867</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.56913479450427</v>
+        <v>13.56913479450455</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.06254283532701521</v>
+        <v>0.06254283532703298</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5912374722307305</v>
+        <v>0.5912374722307234</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.87568821598893</v>
+        <v>6.875688215988703</v>
       </c>
       <c r="C21">
-        <v>1.375954249147838</v>
+        <v>1.375954249147696</v>
       </c>
       <c r="D21">
-        <v>0.4965862177289182</v>
+        <v>0.4965862177294014</v>
       </c>
       <c r="E21">
-        <v>0.3382241712117064</v>
+        <v>0.3382241712116922</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.67561056861325</v>
+        <v>15.67561056861382</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.07266660966254079</v>
+        <v>0.0726666096625479</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6924293822462602</v>
+        <v>0.6924293822462388</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.598412301855205</v>
+        <v>7.598412301855603</v>
       </c>
       <c r="C22">
-        <v>1.529554881547938</v>
+        <v>1.529554881547455</v>
       </c>
       <c r="D22">
-        <v>0.5455194416102813</v>
+        <v>0.5455194416102529</v>
       </c>
       <c r="E22">
-        <v>0.3714993160070037</v>
+        <v>0.3714993160069966</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.15804952167355</v>
+        <v>17.15804952167395</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.07980488509409156</v>
+        <v>0.07980488509409511</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7641237767410658</v>
+        <v>0.7641237767411226</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.206433970021465</v>
+        <v>7.206433970020612</v>
       </c>
       <c r="C23">
-        <v>1.446070124451069</v>
+        <v>1.446070124450586</v>
       </c>
       <c r="D23">
-        <v>0.5190221577634304</v>
+        <v>0.5190221577637146</v>
       </c>
       <c r="E23">
-        <v>0.3534784056435853</v>
+        <v>0.3534784056436351</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.35537982841919</v>
+        <v>16.3553798284193</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.07593855235383984</v>
+        <v>0.0759385523537297</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7252553554835401</v>
+        <v>0.7252553554834691</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.84200196978253</v>
+        <v>5.842001969782416</v>
       </c>
       <c r="C24">
-        <v>1.158682948538655</v>
+        <v>1.158682948539052</v>
       </c>
       <c r="D24">
-        <v>0.426011170072087</v>
+        <v>0.4260111700723428</v>
       </c>
       <c r="E24">
-        <v>0.290265995604706</v>
+        <v>0.2902659956046278</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.53614379311202</v>
+        <v>13.53614379311213</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.06238448018145348</v>
+        <v>0.0623844801814748</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5896590242414135</v>
+        <v>0.5896590242414419</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.542288485999848</v>
+        <v>4.54228848599945</v>
       </c>
       <c r="C25">
-        <v>0.8892475200611898</v>
+        <v>0.8892475200608487</v>
       </c>
       <c r="D25">
-        <v>0.3362996511241079</v>
+        <v>0.3362996511244205</v>
       </c>
       <c r="E25">
-        <v>0.2293561543288263</v>
+        <v>0.229356154328805</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.81217190449033</v>
+        <v>10.8121719044903</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.04933481958367736</v>
+        <v>0.04933481958369867</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4600272260891742</v>
+        <v>0.4600272260891671</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.676447687524671</v>
+        <v>3.675345232322059</v>
       </c>
       <c r="C2">
-        <v>0.7118360375802411</v>
+        <v>0.7113596866983869</v>
       </c>
       <c r="D2">
-        <v>0.2759289343802891</v>
+        <v>0.2758829985026807</v>
       </c>
       <c r="E2">
-        <v>0.1883956620960703</v>
+        <v>0.188362017305856</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.974207052167429</v>
+        <v>2.936716999850319</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.986860058138006</v>
       </c>
       <c r="I2">
-        <v>0.04056420451824039</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0405561335094955</v>
       </c>
       <c r="K2">
-        <v>0.3733778636562377</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3733012490054932</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.127425608555313</v>
+        <v>3.12675060701514</v>
       </c>
       <c r="C3">
-        <v>0.6000805461145831</v>
+        <v>0.5997586777909873</v>
       </c>
       <c r="D3">
-        <v>0.2373890745756313</v>
+        <v>0.2373589900779081</v>
       </c>
       <c r="E3">
-        <v>0.1622563371897741</v>
+        <v>0.16223305755193</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.797530072397109</v>
+        <v>2.543167838103585</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.211598021550287</v>
       </c>
       <c r="I3">
-        <v>0.03496874450328669</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03496292452193828</v>
       </c>
       <c r="K3">
-        <v>0.3182901451289908</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3182425665921187</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.804249419919586</v>
+        <v>2.803780518891301</v>
       </c>
       <c r="C4">
-        <v>0.5345216586191839</v>
+        <v>0.5342785235458791</v>
       </c>
       <c r="D4">
-        <v>0.2146048906323159</v>
+        <v>0.2145825683636815</v>
       </c>
       <c r="E4">
-        <v>0.1468055313199059</v>
+        <v>0.1467874945080467</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.100165122141448</v>
+        <v>2.309841760110601</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.752190610318905</v>
       </c>
       <c r="I4">
-        <v>0.03166167842587697</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03165703505130324</v>
       </c>
       <c r="K4">
-        <v>0.2858016381625248</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2857680010527375</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.675474762768488</v>
+        <v>2.675078423429682</v>
       </c>
       <c r="C5">
-        <v>0.5084378231857727</v>
+        <v>0.5082235138938245</v>
       </c>
       <c r="D5">
-        <v>0.2055051648089403</v>
+        <v>0.2054856233738604</v>
       </c>
       <c r="E5">
-        <v>0.1406349724045732</v>
+        <v>0.1406188596813074</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.821198488614016</v>
+        <v>2.216484000236392</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.568429523525907</v>
       </c>
       <c r="I5">
-        <v>0.03034098346366321</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03033678165223463</v>
       </c>
       <c r="K5">
-        <v>0.2728416900813855</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2728129630715301</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.65425307797625</v>
+        <v>2.653868166373172</v>
       </c>
       <c r="C6">
-        <v>0.5041411897249475</v>
+        <v>0.5039314901570719</v>
       </c>
       <c r="D6">
-        <v>0.2040043823447775</v>
+        <v>0.2039852823760668</v>
       </c>
       <c r="E6">
-        <v>0.1396172965411786</v>
+        <v>0.1396014921958937</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.775162179405811</v>
+        <v>2.201076490555437</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.538105422562722</v>
       </c>
       <c r="I6">
-        <v>0.03012316966393058</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03011903922112324</v>
       </c>
       <c r="K6">
-        <v>0.2707050874362977</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2706771343021614</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.802501588053872</v>
+        <v>2.802033708689919</v>
       </c>
       <c r="C7">
-        <v>0.5341674896308461</v>
+        <v>0.5339247555809834</v>
       </c>
       <c r="D7">
-        <v>0.2144814632375329</v>
+        <v>0.2144591798908095</v>
       </c>
       <c r="E7">
-        <v>0.146721833853249</v>
+        <v>0.146703823770757</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.096383099911009</v>
+        <v>2.308576166569964</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.749699249548712</v>
       </c>
       <c r="I7">
-        <v>0.03164376441552719</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03163912713382899</v>
       </c>
       <c r="K7">
-        <v>0.285625792853331</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2855922248475835</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.483875165396285</v>
+        <v>3.482933655942929</v>
       </c>
       <c r="C8">
-        <v>0.672577511197602</v>
+        <v>0.6721583094791299</v>
       </c>
       <c r="D8">
-        <v>0.2624342681911855</v>
+        <v>0.2623942844872147</v>
       </c>
       <c r="E8">
-        <v>0.1792423278339612</v>
+        <v>0.1792125376284588</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.562556344648527</v>
+        <v>2.799056445595625</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.715629972397409</v>
       </c>
       <c r="I8">
-        <v>0.03860469971410296</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03859745703680417</v>
       </c>
       <c r="K8">
-        <v>0.3540694719415001</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3540038166258697</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.962875265721038</v>
+        <v>4.960388809528638</v>
       </c>
       <c r="C9">
-        <v>0.9760044405645942</v>
+        <v>0.9750626690186834</v>
       </c>
       <c r="D9">
-        <v>0.3654490083333712</v>
+        <v>0.3653515065489756</v>
       </c>
       <c r="E9">
-        <v>0.2491412238109021</v>
+        <v>0.2490749738366205</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.69799650881623</v>
+        <v>3.847129117646347</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.781684295955074</v>
       </c>
       <c r="I9">
-        <v>0.05357262777334526</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05355775372788685</v>
       </c>
       <c r="K9">
-        <v>0.5020297522654147</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.5018573791222565</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.195335457156716</v>
+        <v>6.190988671443847</v>
       </c>
       <c r="C10">
-        <v>1.232639841522939</v>
+        <v>1.231106672954894</v>
       </c>
       <c r="D10">
-        <v>0.4502123825295712</v>
+        <v>0.450043376555243</v>
       </c>
       <c r="E10">
-        <v>0.3067072447095001</v>
+        <v>0.3065963941514553</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.27004254298959</v>
+        <v>4.706190945922231</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.476534568970123</v>
       </c>
       <c r="I10">
-        <v>0.06590868149519835</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06588470969866833</v>
       </c>
       <c r="K10">
-        <v>0.624818988376461</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.6245140566227363</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.806687206169102</v>
+        <v>6.801202363630523</v>
       </c>
       <c r="C11">
-        <v>1.361363690873361</v>
+        <v>1.35947840384614</v>
       </c>
       <c r="D11">
-        <v>0.4918966269747216</v>
+        <v>0.4916826294612804</v>
       </c>
       <c r="E11">
-        <v>0.3350362258729618</v>
+        <v>0.3348973087155827</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.53350623449887</v>
+        <v>5.127978961100382</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.30901652130751</v>
       </c>
       <c r="I11">
-        <v>0.07198290611096425</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07195323852511493</v>
       </c>
       <c r="K11">
-        <v>0.6855777164866126</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.6851898852393106</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.047764675689905</v>
+        <v>7.041788209966796</v>
       </c>
       <c r="C12">
-        <v>1.412396307779829</v>
+        <v>1.410360467215384</v>
       </c>
       <c r="D12">
-        <v>0.5082677907964239</v>
+        <v>0.5080340890704917</v>
       </c>
       <c r="E12">
-        <v>0.3461659806542556</v>
+        <v>0.3460147516698413</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.02955835185679</v>
+        <v>5.293540973711629</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.63583634452186</v>
       </c>
       <c r="I12">
-        <v>0.07436998940814021</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07433782451418125</v>
       </c>
       <c r="K12">
-        <v>0.7095110688178323</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.7090870545248507</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.995373507878014</v>
+        <v>6.989506022117382</v>
       </c>
       <c r="C13">
-        <v>1.401292535640835</v>
+        <v>1.399289997868124</v>
       </c>
       <c r="D13">
-        <v>0.5047132014339866</v>
+        <v>0.504483881019155</v>
       </c>
       <c r="E13">
-        <v>0.3437492479182112</v>
+        <v>0.3436007577592619</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.92185953875162</v>
+        <v>5.257597299260453</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.56488116475526</v>
       </c>
       <c r="I13">
-        <v>0.07385162148289126</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0738200121316126</v>
       </c>
       <c r="K13">
-        <v>0.704311081202988</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.7038951061187078</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.826313018731526</v>
+        <v>6.820789086910395</v>
       </c>
       <c r="C14">
-        <v>1.365512356249297</v>
+        <v>1.363615067666615</v>
       </c>
       <c r="D14">
-        <v>0.4932307911839189</v>
+        <v>0.4930152327160044</v>
       </c>
       <c r="E14">
-        <v>0.3359431617979993</v>
+        <v>0.3358032698153508</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.57393487199249</v>
+        <v>5.141473189291673</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.33565314569046</v>
       </c>
       <c r="I14">
-        <v>0.07217740916825832</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07214754384698807</v>
       </c>
       <c r="K14">
-        <v>0.6875266426608775</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.6871359423583314</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.72408634232437</v>
+        <v>6.718764233329352</v>
       </c>
       <c r="C15">
-        <v>1.343914104437971</v>
+        <v>1.342078841975933</v>
       </c>
       <c r="D15">
-        <v>0.4862786822010889</v>
+        <v>0.4860711722890301</v>
       </c>
       <c r="E15">
-        <v>0.3312174248303137</v>
+        <v>0.3310825583310191</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.36326167752708</v>
+        <v>5.071153371794253</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.19684896852687</v>
       </c>
       <c r="I15">
-        <v>0.07116394719081853</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07113510127460287</v>
       </c>
       <c r="K15">
-        <v>0.6773740419794194</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.67699814001314</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.156580399717484</v>
+        <v>6.152300713776867</v>
       </c>
       <c r="C16">
-        <v>1.2245124630482</v>
+        <v>1.223000238613793</v>
       </c>
       <c r="D16">
-        <v>0.4475618076561432</v>
+        <v>0.4473954260060111</v>
       </c>
       <c r="E16">
-        <v>0.3049063449937606</v>
+        <v>0.3047971301456727</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.18967841627608</v>
+        <v>4.679358010029944</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.423581159927835</v>
       </c>
       <c r="I16">
-        <v>0.06552261828889172</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.06549897875120791</v>
       </c>
       <c r="K16">
-        <v>0.6209641054840844</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.620664021663444</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.822817817962914</v>
+        <v>5.819092132477465</v>
       </c>
       <c r="C17">
-        <v>1.154676479362109</v>
+        <v>1.153338110806914</v>
       </c>
       <c r="D17">
-        <v>0.4246948794279604</v>
+        <v>0.4245500388565802</v>
       </c>
       <c r="E17">
-        <v>0.2893718899955289</v>
+        <v>0.2892760995236259</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.49621853543678</v>
+        <v>4.447794440929613</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.966638400887092</v>
       </c>
       <c r="I17">
-        <v>0.06219284980383222</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.06217193963812306</v>
       </c>
       <c r="K17">
-        <v>0.5877490733096025</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.5874888348386236</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.635446721393294</v>
+        <v>5.632013711008312</v>
       </c>
       <c r="C18">
-        <v>1.115593446432115</v>
+        <v>1.114347673706334</v>
       </c>
       <c r="D18">
-        <v>0.4118263022567135</v>
+        <v>0.4116927488183819</v>
       </c>
       <c r="E18">
-        <v>0.280631426751313</v>
+        <v>0.2805426712466286</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.1058398028087</v>
+        <v>4.317419105958322</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.709399380916835</v>
       </c>
       <c r="I18">
-        <v>0.06031965685215468</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06030017942435961</v>
       </c>
       <c r="K18">
-        <v>0.569089406600078</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.5688500829646728</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.57273840569286</v>
+        <v>5.56940046627841</v>
       </c>
       <c r="C19">
-        <v>1.102532679520181</v>
+        <v>1.101317110301807</v>
       </c>
       <c r="D19">
-        <v>0.4075144944426654</v>
+        <v>0.4073845933707219</v>
       </c>
       <c r="E19">
-        <v>0.2777030726596621</v>
+        <v>0.2776165941226481</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.97501474800433</v>
+        <v>4.273724336189503</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.623191788662325</v>
       </c>
       <c r="I19">
-        <v>0.05969212077694408</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.05967310755233157</v>
       </c>
       <c r="K19">
-        <v>0.5628423572183081</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.5626098065285419</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.857857149692222</v>
+        <v>5.854075286084367</v>
       </c>
       <c r="C20">
-        <v>1.161994880131545</v>
+        <v>1.160638800899221</v>
       </c>
       <c r="D20">
-        <v>0.4270988704365664</v>
+        <v>0.4269518559076744</v>
       </c>
       <c r="E20">
-        <v>0.2910048382450867</v>
+        <v>0.2909076929780525</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.56913479450455</v>
+        <v>4.472144934821245</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.014685941816822</v>
       </c>
       <c r="I20">
-        <v>0.06254283532703298</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.06252164946712568</v>
       </c>
       <c r="K20">
-        <v>0.5912374722307234</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.5909732083060319</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.875688215988703</v>
+        <v>6.870065216801436</v>
       </c>
       <c r="C21">
-        <v>1.375954249147696</v>
+        <v>1.374026568604393</v>
       </c>
       <c r="D21">
-        <v>0.4965862177294014</v>
+        <v>0.496366698712194</v>
       </c>
       <c r="E21">
-        <v>0.3382241712116922</v>
+        <v>0.3380818054622026</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.67561056861382</v>
+        <v>5.175409775190303</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.40264230309566</v>
       </c>
       <c r="I21">
-        <v>0.0726666096625479</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0726362425653555</v>
       </c>
       <c r="K21">
-        <v>0.6924293822462388</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.6920314044784135</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.598412301855603</v>
+        <v>7.591215603767523</v>
       </c>
       <c r="C22">
-        <v>1.529554881547455</v>
+        <v>1.5271485903788</v>
       </c>
       <c r="D22">
-        <v>0.5455194416102529</v>
+        <v>0.5452361851447165</v>
       </c>
       <c r="E22">
-        <v>0.3714993160069966</v>
+        <v>0.3713170555929466</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.15804952167395</v>
+        <v>5.670105342381476</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.37927098804278</v>
       </c>
       <c r="I22">
-        <v>0.07980488509409511</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07976642361630937</v>
       </c>
       <c r="K22">
-        <v>0.7641237767411226</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.763609070519891</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.206433970020612</v>
+        <v>7.200120058674315</v>
       </c>
       <c r="C23">
-        <v>1.446070124450586</v>
+        <v>1.443931405667854</v>
       </c>
       <c r="D23">
-        <v>0.5190221577637146</v>
+        <v>0.5187748424041274</v>
       </c>
       <c r="E23">
-        <v>0.3534784056436351</v>
+        <v>0.3533186617933097</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.3553798284193</v>
+        <v>5.402275316151986</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.85049256608067</v>
       </c>
       <c r="I23">
-        <v>0.0759385523537297</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07590466018977438</v>
       </c>
       <c r="K23">
-        <v>0.7252553554834691</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.7248063839140997</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.842001969782416</v>
+        <v>5.838245583484138</v>
       </c>
       <c r="C24">
-        <v>1.158682948539052</v>
+        <v>1.15733489886</v>
       </c>
       <c r="D24">
-        <v>0.4260111700723428</v>
+        <v>0.4258651417486021</v>
       </c>
       <c r="E24">
-        <v>0.2902659956046278</v>
+        <v>0.2901694649296118</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.53614379311213</v>
+        <v>4.461127596975132</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.992946823846552</v>
       </c>
       <c r="I24">
-        <v>0.0623844801814748</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.06236341938010881</v>
       </c>
       <c r="K24">
-        <v>0.5896590242414419</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.5893965863276591</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.54228848599945</v>
+        <v>4.540314538403379</v>
       </c>
       <c r="C25">
-        <v>0.8892475200608487</v>
+        <v>0.8884742157381993</v>
       </c>
       <c r="D25">
-        <v>0.3362996511244205</v>
+        <v>0.3362213826226963</v>
       </c>
       <c r="E25">
-        <v>0.229356154328805</v>
+        <v>0.2293019682061939</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.8121719044903</v>
+        <v>3.551127501252893</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.197957480597893</v>
       </c>
       <c r="I25">
-        <v>0.04933481958369867</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.04932243470630837</v>
       </c>
       <c r="K25">
-        <v>0.4600272260891671</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.4598906263467413</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.675345232322059</v>
+        <v>9.249402345051863</v>
       </c>
       <c r="C2">
-        <v>0.7113596866983869</v>
+        <v>1.551552485153081</v>
       </c>
       <c r="D2">
-        <v>0.2758829985026807</v>
+        <v>0.1603460997681196</v>
       </c>
       <c r="E2">
-        <v>0.188362017305856</v>
+        <v>0.01886278137217134</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.936716999850319</v>
+        <v>0.0008575431066317633</v>
       </c>
       <c r="H2">
-        <v>5.986860058138006</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0405561335094955</v>
+        <v>0.03628387536700117</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3733012490054932</v>
+        <v>0.7190577003219545</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>4.782264725414819</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.12675060701514</v>
+        <v>8.229910176618375</v>
       </c>
       <c r="C3">
-        <v>0.5997586777909873</v>
+        <v>1.3486480003765</v>
       </c>
       <c r="D3">
-        <v>0.2373589900779081</v>
+        <v>0.152113616269645</v>
       </c>
       <c r="E3">
-        <v>0.16223305755193</v>
+        <v>0.01909765288486787</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.543167838103585</v>
+        <v>0.0008757692739318336</v>
       </c>
       <c r="H3">
-        <v>5.211598021550287</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03496292452193828</v>
+        <v>0.03100964967955377</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3182425665921187</v>
+        <v>0.6533228333228749</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>4.553308744285175</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.803780518891301</v>
+        <v>7.632887990039535</v>
       </c>
       <c r="C4">
-        <v>0.5342785235458791</v>
+        <v>1.229334668815625</v>
       </c>
       <c r="D4">
-        <v>0.2145825683636815</v>
+        <v>0.147432609732995</v>
       </c>
       <c r="E4">
-        <v>0.1467874945080467</v>
+        <v>0.01925276159090616</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.309841760110601</v>
+        <v>0.0008870971606138353</v>
       </c>
       <c r="H4">
-        <v>4.752190610318905</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03165703505130324</v>
+        <v>0.02787865665657563</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2857680010527375</v>
+        <v>0.6150963888436536</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>4.418375182445061</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.675078423429682</v>
+        <v>7.39584263883421</v>
       </c>
       <c r="C5">
-        <v>0.5082235138938245</v>
+        <v>1.181833158803897</v>
       </c>
       <c r="D5">
-        <v>0.2054856233738604</v>
+        <v>0.1456089499566389</v>
       </c>
       <c r="E5">
-        <v>0.1406188596813074</v>
+        <v>0.01931865769717067</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.216484000236392</v>
+        <v>0.0008917569315475669</v>
       </c>
       <c r="H5">
-        <v>4.568429523525907</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03033678165223463</v>
+        <v>0.0266246483884558</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2728129630715301</v>
+        <v>0.5999846976920651</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>4.364610264604153</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.653868166373172</v>
+        <v>7.356831329950921</v>
       </c>
       <c r="C6">
-        <v>0.5039314901570719</v>
+        <v>1.174007755169782</v>
       </c>
       <c r="D6">
-        <v>0.2039852823760668</v>
+        <v>0.1453109318146488</v>
       </c>
       <c r="E6">
-        <v>0.1396014921958937</v>
+        <v>0.0193297607627656</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.201076490555437</v>
+        <v>0.0008925335562627194</v>
       </c>
       <c r="H6">
-        <v>4.538105422562722</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03011903922112324</v>
+        <v>0.02641760893382639</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2706771343021614</v>
+        <v>0.5975016740872547</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>4.355751154338549</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.802033708689919</v>
+        <v>7.629667078829357</v>
       </c>
       <c r="C7">
-        <v>0.5339247555809834</v>
+        <v>1.228689763035334</v>
       </c>
       <c r="D7">
-        <v>0.2144591798908095</v>
+        <v>0.1474076878307358</v>
       </c>
       <c r="E7">
-        <v>0.146703823770757</v>
+        <v>0.01925363946451464</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.308576166569964</v>
+        <v>0.0008871598163085219</v>
       </c>
       <c r="H7">
-        <v>4.749699249548712</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03163912713382899</v>
+        <v>0.02786166219432573</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2855922248475835</v>
+        <v>0.6148907870686457</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>4.417645385335874</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.482933655942929</v>
+        <v>8.891198843861389</v>
       </c>
       <c r="C8">
-        <v>0.6721583094791299</v>
+        <v>1.480362761665845</v>
       </c>
       <c r="D8">
-        <v>0.2623942844872147</v>
+        <v>0.1574233826921301</v>
       </c>
       <c r="E8">
-        <v>0.1792125376284588</v>
+        <v>0.01894146784540962</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.799056445595625</v>
+        <v>0.0008638050065616909</v>
       </c>
       <c r="H8">
-        <v>5.715629972397409</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03859745703680417</v>
+        <v>0.03443969120577961</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3540038166258697</v>
+        <v>0.6959029078628305</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>4.702019991768537</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.960388809528638</v>
+        <v>11.65176752922878</v>
       </c>
       <c r="C9">
-        <v>0.9750626690186834</v>
+        <v>2.027091752942624</v>
       </c>
       <c r="D9">
-        <v>0.3653515065489756</v>
+        <v>0.1805856188453419</v>
       </c>
       <c r="E9">
-        <v>0.2490749738366205</v>
+        <v>0.01841900978823952</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.847129117646347</v>
+        <v>0.0008185917598475074</v>
       </c>
       <c r="H9">
-        <v>7.781684295955074</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05355775372788685</v>
+        <v>0.04847491522088632</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5018573791222565</v>
+        <v>0.8756232307246989</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>5.315319589872871</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.190988671443847</v>
+        <v>13.95666319830661</v>
       </c>
       <c r="C10">
-        <v>1.231106672954894</v>
+        <v>2.481622192153907</v>
       </c>
       <c r="D10">
-        <v>0.450043376555243</v>
+        <v>0.2007403770830365</v>
       </c>
       <c r="E10">
-        <v>0.3065963941514553</v>
+        <v>0.01809651337382401</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.706190945922231</v>
+        <v>0.0007848381338824112</v>
       </c>
       <c r="H10">
-        <v>9.476534568970123</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06588470969866833</v>
+        <v>0.05999009533746147</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6245140566227363</v>
+        <v>1.027381285794462</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>5.81903284568989</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.801202363630523</v>
+        <v>15.09749741486621</v>
       </c>
       <c r="C11">
-        <v>1.35947840384614</v>
+        <v>2.706357299970307</v>
       </c>
       <c r="D11">
-        <v>0.4916826294612804</v>
+        <v>0.2109020493662683</v>
       </c>
       <c r="E11">
-        <v>0.3348973087155827</v>
+        <v>0.01796558857445207</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.127978961100382</v>
+        <v>0.0007690857383759862</v>
       </c>
       <c r="H11">
-        <v>10.30901652130751</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07195323852511493</v>
+        <v>0.0656532713159379</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6851898852393106</v>
+        <v>1.102914494857174</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>6.065714710844702</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.041788209966796</v>
+        <v>15.54656079228073</v>
       </c>
       <c r="C12">
-        <v>1.410360467215384</v>
+        <v>2.794807287275432</v>
       </c>
       <c r="D12">
-        <v>0.5080340890704917</v>
+        <v>0.2149292685001427</v>
       </c>
       <c r="E12">
-        <v>0.3460147516698413</v>
+        <v>0.01791860598076589</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.293540973711629</v>
+        <v>0.0007630306187362836</v>
       </c>
       <c r="H12">
-        <v>10.63583634452186</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07433782451418125</v>
+        <v>0.06787824340267434</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7090870545248507</v>
+        <v>1.132711432810254</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>6.162346978903997</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.989506022117382</v>
+        <v>15.44901475749737</v>
       </c>
       <c r="C13">
-        <v>1.399289997868124</v>
+        <v>2.775594167596637</v>
       </c>
       <c r="D13">
-        <v>0.504483881019155</v>
+        <v>0.2140532558775021</v>
       </c>
       <c r="E13">
-        <v>0.3436007577592619</v>
+        <v>0.01792860232655169</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.257597299260453</v>
+        <v>0.0007643393416953984</v>
       </c>
       <c r="H13">
-        <v>10.56488116475526</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0738200121316126</v>
+        <v>0.06739509809539612</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7038951061187078</v>
+        <v>1.126235949831141</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>6.141378777393072</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.820789086910395</v>
+        <v>15.134074256997</v>
       </c>
       <c r="C14">
-        <v>1.363615067666615</v>
+        <v>2.713561754997386</v>
       </c>
       <c r="D14">
-        <v>0.4930152327160044</v>
+        <v>0.2112295287127921</v>
       </c>
       <c r="E14">
-        <v>0.3358032698153508</v>
+        <v>0.01796166888853179</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.141473189291673</v>
+        <v>0.0007685896109525108</v>
       </c>
       <c r="H14">
-        <v>10.33565314569046</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07214754384698807</v>
+        <v>0.06583457447868568</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6871359423583314</v>
+        <v>1.105340180785618</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>6.073595396153337</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.718764233329352</v>
+        <v>14.94351809056479</v>
       </c>
       <c r="C15">
-        <v>1.342078841975933</v>
+        <v>2.676028034504156</v>
       </c>
       <c r="D15">
-        <v>0.4860711722890301</v>
+        <v>0.2095245321090147</v>
       </c>
       <c r="E15">
-        <v>0.3310825583310191</v>
+        <v>0.01798227322582235</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.071153371794253</v>
+        <v>0.0007711801433116961</v>
       </c>
       <c r="H15">
-        <v>10.19684896852687</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07113510127460287</v>
+        <v>0.06488987032467008</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.67699814001314</v>
+        <v>1.092705580363827</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>6.032519802303909</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.152300713776867</v>
+        <v>13.88426140044737</v>
       </c>
       <c r="C16">
-        <v>1.223000238613793</v>
+        <v>2.467356679030445</v>
       </c>
       <c r="D16">
-        <v>0.4473954260060111</v>
+        <v>0.2000991336673223</v>
       </c>
       <c r="E16">
-        <v>0.3047971301456727</v>
+        <v>0.01810541210639505</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.679358010029944</v>
+        <v>0.0007858570085556085</v>
       </c>
       <c r="H16">
-        <v>9.423581159927835</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06549897875120791</v>
+        <v>0.05963005845249825</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.620664021663444</v>
+        <v>1.022596156661592</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>5.80331938161379</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.819092132477465</v>
+        <v>13.26042720474834</v>
       </c>
       <c r="C17">
-        <v>1.153338110806914</v>
+        <v>2.344417454996574</v>
       </c>
       <c r="D17">
-        <v>0.4245500388565802</v>
+        <v>0.1945939062133277</v>
       </c>
       <c r="E17">
-        <v>0.2892760995236259</v>
+        <v>0.018185188841636</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.447794440929613</v>
+        <v>0.0007947385925152926</v>
       </c>
       <c r="H17">
-        <v>8.966638400887092</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06217193963812306</v>
+        <v>0.05652408485667593</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5874888348386236</v>
+        <v>0.9814113240181825</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>5.667637689869593</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.632013711008312</v>
+        <v>12.91002278999633</v>
       </c>
       <c r="C18">
-        <v>1.114347673706334</v>
+        <v>2.275340129009123</v>
       </c>
       <c r="D18">
-        <v>0.4116927488183819</v>
+        <v>0.1915182195028677</v>
       </c>
       <c r="E18">
-        <v>0.2805426712466286</v>
+        <v>0.01823253408832048</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.317419105958322</v>
+        <v>0.0007998120575167956</v>
       </c>
       <c r="H18">
-        <v>8.709399380916835</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06030017942435961</v>
+        <v>0.05477615174651618</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5688500829646728</v>
+        <v>0.9583151258887312</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>5.591196393141132</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.56940046627841</v>
+        <v>12.79272916450532</v>
       </c>
       <c r="C19">
-        <v>1.101317110301807</v>
+        <v>2.252212836116655</v>
       </c>
       <c r="D19">
-        <v>0.4073845933707219</v>
+        <v>0.1904914998160052</v>
       </c>
       <c r="E19">
-        <v>0.2776165941226481</v>
+        <v>0.01824880718411026</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.273724336189503</v>
+        <v>0.0008015246789723028</v>
       </c>
       <c r="H19">
-        <v>8.623191788662325</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05967310755233157</v>
+        <v>0.0541904572320604</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5626098065285419</v>
+        <v>0.9505902042530181</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>5.565571403381966</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.854075286084367</v>
+        <v>13.32594149122258</v>
       </c>
       <c r="C20">
-        <v>1.160638800899221</v>
+        <v>2.357330646061143</v>
       </c>
       <c r="D20">
-        <v>0.4269518559076744</v>
+        <v>0.1951703236587861</v>
       </c>
       <c r="E20">
-        <v>0.2909076929780525</v>
+        <v>0.01817654343974828</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.472144934821245</v>
+        <v>0.000793796959724092</v>
       </c>
       <c r="H20">
-        <v>9.014685941816822</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06252164946712568</v>
+        <v>0.05685061143807246</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5909732083060319</v>
+        <v>0.9857325981747351</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>5.681911340159161</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.870065216801436</v>
+        <v>15.22608076953316</v>
       </c>
       <c r="C21">
-        <v>1.374026568604393</v>
+        <v>2.73168396553973</v>
       </c>
       <c r="D21">
-        <v>0.496366698712194</v>
+        <v>0.2120537131019091</v>
       </c>
       <c r="E21">
-        <v>0.3380818054622026</v>
+        <v>0.01795188268098791</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.175409775190303</v>
+        <v>0.000767343962721042</v>
       </c>
       <c r="H21">
-        <v>10.40264230309566</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0726362425653555</v>
+        <v>0.06629056778513842</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6920314044784135</v>
+        <v>1.111442869417743</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>6.093410980424608</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.591215603767523</v>
+        <v>16.57010406681593</v>
       </c>
       <c r="C22">
-        <v>1.5271485903788</v>
+        <v>2.996420891946229</v>
       </c>
       <c r="D22">
-        <v>0.5452361851447165</v>
+        <v>0.224159096654958</v>
       </c>
       <c r="E22">
-        <v>0.3713170555929466</v>
+        <v>0.01782045339965022</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.670105342381476</v>
+        <v>0.0007495065959505383</v>
       </c>
       <c r="H22">
-        <v>11.37927098804278</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07976642361630937</v>
+        <v>0.07294339429699193</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.763609070519891</v>
+        <v>1.200752547411753</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>6.381619654540884</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.200120058674315</v>
+        <v>15.8418222663887</v>
       </c>
       <c r="C23">
-        <v>1.443931405667854</v>
+        <v>2.852963839903055</v>
       </c>
       <c r="D23">
-        <v>0.5187748424041274</v>
+        <v>0.217584830308482</v>
       </c>
       <c r="E23">
-        <v>0.3533186617933097</v>
+        <v>0.01788904182289253</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.402275316151986</v>
+        <v>0.0007590908750030415</v>
       </c>
       <c r="H23">
-        <v>10.85049256608067</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07590466018977438</v>
+        <v>0.06934016981298896</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7248063839140997</v>
+        <v>1.152321793974238</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>6.225740031090083</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.838245583484138</v>
+        <v>13.29629706442472</v>
       </c>
       <c r="C24">
-        <v>1.15733489886</v>
+        <v>2.351487656253028</v>
       </c>
       <c r="D24">
-        <v>0.4258651417486021</v>
+        <v>0.1949094496280992</v>
       </c>
       <c r="E24">
-        <v>0.2901694649296118</v>
+        <v>0.01818044743696801</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.461127596975132</v>
+        <v>0.0007942227713266355</v>
       </c>
       <c r="H24">
-        <v>8.992946823846552</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06236341938010881</v>
+        <v>0.05670287260769413</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5893965863276591</v>
+        <v>0.9837771572195209</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>5.675453400978768</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.540314538403379</v>
+        <v>10.86518301543606</v>
       </c>
       <c r="C25">
-        <v>0.8884742157381993</v>
+        <v>1.871676037905218</v>
       </c>
       <c r="D25">
-        <v>0.3362213826226963</v>
+        <v>0.1738541672672369</v>
       </c>
       <c r="E25">
-        <v>0.2293019682061939</v>
+        <v>0.01855019430968863</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.551127501252893</v>
+        <v>0.0008308401681598128</v>
       </c>
       <c r="H25">
-        <v>7.197957480597893</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04932243470630837</v>
+        <v>0.0445110927505965</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4598906263467413</v>
+        <v>0.8241473541604591</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>5.141728559449604</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.249402345051863</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.551552485153081</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1603460997681196</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01886278137217134</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008575431066317633</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03628387536700117</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7190577003219545</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.782264725414819</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.229910176618375</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.3486480003765</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.152113616269645</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01909765288486787</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008757692739318336</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03100964967955377</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6533228333228749</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.553308744285175</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.632887990039535</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.229334668815625</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.147432609732995</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01925276159090616</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008870971606138353</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02787865665657563</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6150963888436536</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.418375182445061</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.39584263883421</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.181833158803897</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1456089499566389</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01931865769717067</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008917569315475669</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0266246483884558</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5999846976920651</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.364610264604153</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.356831329950921</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.174007755169782</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1453109318146488</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0193297607627656</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008925335562627194</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02641760893382639</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5975016740872547</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.355751154338549</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.629667078829357</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.228689763035334</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1474076878307358</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01925363946451464</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008871598163085219</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02786166219432573</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6148907870686457</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4.417645385335874</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.891198843861389</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.480362761665845</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1574233826921301</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01894146784540962</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008638050065616909</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03443969120577961</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6959029078628305</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.702019991768537</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.65176752922878</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.027091752942624</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1805856188453419</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01841900978823952</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008185917598475074</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04847491522088632</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8756232307246989</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.315319589872871</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.95666319830661</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.481622192153907</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2007403770830365</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01809651337382401</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007848381338824112</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05999009533746147</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.027381285794462</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.81903284568989</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.09749741486621</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.706357299970307</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2109020493662683</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01796558857445207</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007690857383759862</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0656532713159379</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.102914494857174</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.065714710844702</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.54656079228073</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.794807287275432</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2149292685001427</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01791860598076589</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007630306187362836</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06787824340267434</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.132711432810254</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.162346978903997</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.44901475749737</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.775594167596637</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2140532558775021</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01792860232655169</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007643393416953984</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06739509809539612</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.126235949831141</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.141378777393072</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.134074256997</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.713561754997386</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2112295287127921</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01796166888853179</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007685896109525108</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06583457447868568</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.105340180785618</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.073595396153337</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.94351809056479</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.676028034504156</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2095245321090147</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01798227322582235</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007711801433116961</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06488987032467008</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.092705580363827</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.032519802303909</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.88426140044737</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2.467356679030445</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2000991336673223</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01810541210639505</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007858570085556085</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05963005845249825</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.022596156661592</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.80331938161379</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.26042720474834</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2.344417454996574</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1945939062133277</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.018185188841636</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007947385925152926</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05652408485667593</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9814113240181825</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.667637689869593</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.91002278999633</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.275340129009123</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1915182195028677</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01823253408832048</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007998120575167956</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05477615174651618</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9583151258887312</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.591196393141132</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.79272916450532</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2.252212836116655</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1904914998160052</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01824880718411026</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008015246789723028</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0541904572320604</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9505902042530181</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.565571403381966</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.32594149122258</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2.357330646061143</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1951703236587861</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01817654343974828</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000793796959724092</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05685061143807246</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9857325981747351</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.681911340159161</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.22608076953316</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.73168396553973</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2120537131019091</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01795188268098791</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000767343962721042</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06629056778513842</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.111442869417743</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.093410980424608</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.57010406681593</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2.996420891946229</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.224159096654958</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01782045339965022</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007495065959505383</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07294339429699193</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.200752547411753</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.381619654540884</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.8418222663887</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.852963839903055</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.217584830308482</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01788904182289253</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007590908750030415</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06934016981298896</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.152321793974238</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.225740031090083</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.29629706442472</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.351487656253028</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1949094496280992</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01818044743696801</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007942227713266355</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05670287260769413</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9837771572195209</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.675453400978768</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.86518301543606</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.871676037905218</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1738541672672369</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01855019430968863</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008308401681598128</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0445110927505965</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8241473541604591</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>5.141728559449604</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.58043067476018</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.633966377590383</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2290548591459185</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04429646696607215</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.67438343019748</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.008216594679974265</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006433093940018342</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.030903524573887</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9438573078352732</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02552657950503345</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4892944307612197</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.9620274027611586</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.133428934293249</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5493262425715386</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2119994250472104</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.04123082444471393</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.542660006167466</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01222257235273685</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.009815597551930288</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.9733653918091534</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8966614387015284</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.02171975828459516</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4348729461597287</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.9972658772315333</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.858938438915061</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.4978602089482251</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2016104757489074</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03934117106793167</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.462646058764264</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01517315785145967</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0123811550624926</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.9385619352851506</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8680104666216124</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.01945888152938835</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.4016099563670963</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.019374452505816</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.745096192823837</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.4774122025906422</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1973579278203914</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.03855331428109388</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.428673028912101</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0165021418119603</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01363420645819069</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9237137525518193</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8554275417891617</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.01855853900611493</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.388177955463803</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.02823759022044</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.723808856708786</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.4745301068310255</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1966067961558053</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03840384722863543</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.421137244513673</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01674072832820062</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01396739190960794</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.9202944759028213</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8521445122937337</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01841528114718827</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3860611618049603</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.029400415387006</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.85087517754306</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.4989715461467483</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2014272437806568</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03928012421703464</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.4569744090211</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01521861096340055</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01270122025195874</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.9357350451022057</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8645656721375943</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.01946091712006748</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.4017350445256653</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.018647826214488</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.41753962892318</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.60651754723267</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2229888975916197</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04317350045772272</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.621838358220089</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009520595400091689</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.007848927496556968</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.007463879390031</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9231655484268515</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.02421415372165114</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4709034210055734</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.9730356824449347</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.542045458879386</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.8196609079231223</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2662648424475833</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.05088261358036839</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.962659677089277</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002485838131229379</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00205928231341268</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.157593745345906</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.047045509789967</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0342430026235867</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6075141962458304</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.8889249772283705</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.336692326414777</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.9792410144213761</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.294254785998092</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05514771671327701</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.189364819736028</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.000511753983747365</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009197481426390652</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.256477246665128</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.124107268875093</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.04346506182784537</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6926536323385193</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.8269904822334126</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5.411903314138499</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.039717718159409</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2697403905625748</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0467856463410028</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.046316609875845</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01897467940675668</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001433110257488934</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.179065760315325</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.027835149344099</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06233129758670941</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5919588332774595</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7857163525675688</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5.314326033359976</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.054103246525813</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.2442806216041191</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.04176969930925711</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.88886734357834</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05769840591371178</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001433578358853715</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.098170562267001</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9384531948053976</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0815097947341954</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.4960103511637612</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.775522896180183</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5.068468964637304</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.035776175885132</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.2165859955823493</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0389396060178766</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.703501411557312</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1136623013215541</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001398382958894828</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.005965474181977</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8442951308503339</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1017357891108617</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3994303128125694</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7864269302244047</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.828820097100788</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.00868631500083</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.1964983004353797</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.03832750001864849</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.561587911436533</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1632878826057862</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001518158502298306</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.9364693822493564</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7764796380088086</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1168987937409867</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3333776860732769</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.8046410776396762</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.737313766070656</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.9957961631710361</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1910197385425079</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.03826654558842124</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.519309679088195</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1759436557597951</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001699335629062659</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.9162676300356054</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7577053327469017</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1201057011612932</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.3164441660334916</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.8122912309493664</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4.447687971573714</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.9314109743750407</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.1852699517886975</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0370681019012018</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.459953581794679</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1640509946136035</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002263047507888416</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.892424816786729</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7435398199731225</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1112539250454176</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.3027964132475631</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8335512912291456</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.351967424190889</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.8966581953277171</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.1913070741551621</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0362054100319642</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.488728725943588</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1268156295553382</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002680448831643645</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9105948503573416</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7679954194857714</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09611263410706528</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.326167354700118</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8398566841677777</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.41632664185255</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.881773555812515</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2088508463317282</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.03694243938961073</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.60247275046757</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07408176458786642</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002520237092337396</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9698009941531041</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8325685719626037</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07614433408875243</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.3880101551246042</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8387194736192534</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4.593075477863238</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.8864670910771792</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2352732258672319</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.04097003051411718</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.772481104686648</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02842043532840677</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002434959431139028</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.055568193944907</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9230448005128267</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.05730340549427382</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4836329485228248</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8393776872625933</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5.105280539173236</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.9413821674814926</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.2862872797464888</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.0538043039109386</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.111719653625386</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0008285498915032719</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001815415514682783</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.22142494194631</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.0928191200938</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.04107255790594877</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6704874306087873</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.8409570356862881</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5.769865830633535</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.067226453007891</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3148516981542713</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.05935004720032921</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.335079891674354</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.22221258447297E-07</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001791417518941962</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.321970869018344</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.17823775285342</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.04651688111569285</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7621498696556444</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7988535697598973</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6.198658847328147</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.147868224296474</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3316354056062494</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.06234850105109224</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.475700545745582</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0002547074801841909</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002172039188307551</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.385079310662462</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.231517561428618</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.05085998199911401</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8135306733548475</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7714495403908455</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5.977758272745746</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.103036537718481</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3228113097039369</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.06080591285560466</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.406728122007934</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.465156057748999E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001607899956190373</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.354432572133135</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.206909029379531</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.0485131968389787</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7856937277049951</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7867420008138009</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.131623896610847</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.938139333876336</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.2895060376888807</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.05493353365784159</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.13971134311933</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0006622632502792936</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001305665707945103</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.235544016009072</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.109166040643991</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.04000505143318023</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6816985883051103</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.8447936896436747</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.225289367194193</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.7639287064482119</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2542306857925922</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.04870063979092976</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.859874847048047</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003924263227348179</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003606562102132393</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.11160844787608</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.007180436520429</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.03145512122145533</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.5709111470175969</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9099424484863743</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.58043067476018</v>
+        <v>3.28993776474573</v>
       </c>
       <c r="C2">
-        <v>0.633966377590383</v>
+        <v>0.6931382664121202</v>
       </c>
       <c r="D2">
-        <v>0.2290548591459185</v>
+        <v>0.2245644453447682</v>
       </c>
       <c r="E2">
-        <v>0.04429646696607215</v>
+        <v>0.0427275818169548</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.67438343019748</v>
+        <v>1.410889111256353</v>
       </c>
       <c r="H2">
-        <v>0.008216594679974265</v>
+        <v>0.006681574893810549</v>
       </c>
       <c r="I2">
-        <v>0.006433093940018342</v>
+        <v>0.004640443316699105</v>
       </c>
       <c r="J2">
-        <v>1.030903524573887</v>
+        <v>0.9269952811234816</v>
       </c>
       <c r="K2">
-        <v>0.9438573078352732</v>
+        <v>0.7772645455452363</v>
       </c>
       <c r="L2">
-        <v>0.02552657950503345</v>
+        <v>0.3322263876568385</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.253619797769268</v>
       </c>
       <c r="N2">
-        <v>0.4892944307612197</v>
+        <v>0.02673449225275881</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9620274027611586</v>
+        <v>0.5122735750372556</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9016428388740643</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.133428934293249</v>
+        <v>2.885694666347831</v>
       </c>
       <c r="C3">
-        <v>0.5493262425715386</v>
+        <v>0.599027500280954</v>
       </c>
       <c r="D3">
-        <v>0.2119994250472104</v>
+        <v>0.2085583870282903</v>
       </c>
       <c r="E3">
-        <v>0.04123082444471393</v>
+        <v>0.04016529009235281</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.542660006167466</v>
+        <v>1.312478934810485</v>
       </c>
       <c r="H3">
-        <v>0.01222257235273685</v>
+        <v>0.009925787916113663</v>
       </c>
       <c r="I3">
-        <v>0.009815597551930288</v>
+        <v>0.007049390147381818</v>
       </c>
       <c r="J3">
-        <v>0.9733653918091534</v>
+        <v>0.8767592127635879</v>
       </c>
       <c r="K3">
-        <v>0.8966614387015284</v>
+        <v>0.7469271517910911</v>
       </c>
       <c r="L3">
-        <v>0.02171975828459516</v>
+        <v>0.3278283148465562</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2364863477620851</v>
       </c>
       <c r="N3">
-        <v>0.4348729461597287</v>
+        <v>0.02296403996123964</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9972658772315333</v>
+        <v>0.4561533721588376</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9336001002510725</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.858938438915061</v>
+        <v>2.636685714914393</v>
       </c>
       <c r="C4">
-        <v>0.4978602089482251</v>
+        <v>0.5417984902659896</v>
       </c>
       <c r="D4">
-        <v>0.2016104757489074</v>
+        <v>0.1988086803993525</v>
       </c>
       <c r="E4">
-        <v>0.03934117106793167</v>
+        <v>0.03857952779100327</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.462646058764264</v>
+        <v>1.252750638975144</v>
       </c>
       <c r="H4">
-        <v>0.01517315785145967</v>
+        <v>0.01231756871312378</v>
       </c>
       <c r="I4">
-        <v>0.0123811550624926</v>
+        <v>0.008904410417424735</v>
       </c>
       <c r="J4">
-        <v>0.9385619352851506</v>
+        <v>0.8458623762963526</v>
       </c>
       <c r="K4">
-        <v>0.8680104666216124</v>
+        <v>0.7283815962192151</v>
       </c>
       <c r="L4">
-        <v>0.01945888152938835</v>
+        <v>0.3248462383381892</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2268541496761962</v>
       </c>
       <c r="N4">
-        <v>0.4016099563670963</v>
+        <v>0.02070879378366541</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.019374452505816</v>
+        <v>0.4218523626601325</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.953790309636509</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.745096192823837</v>
+        <v>2.533195053172335</v>
       </c>
       <c r="C5">
-        <v>0.4774122025906422</v>
+        <v>0.5190210320834581</v>
       </c>
       <c r="D5">
-        <v>0.1973579278203914</v>
+        <v>0.1948182707804023</v>
       </c>
       <c r="E5">
-        <v>0.03855331428109388</v>
+        <v>0.03791602765978297</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.428673028912101</v>
+        <v>1.227195094725275</v>
       </c>
       <c r="H5">
-        <v>0.0165021418119603</v>
+        <v>0.01339557851379797</v>
       </c>
       <c r="I5">
-        <v>0.01363420645819069</v>
+        <v>0.009851038377957089</v>
       </c>
       <c r="J5">
-        <v>0.9237137525518193</v>
+        <v>0.8325343005880228</v>
       </c>
       <c r="K5">
-        <v>0.8554275417891617</v>
+        <v>0.7199999408993918</v>
       </c>
       <c r="L5">
-        <v>0.01855853900611493</v>
+        <v>0.3231948034935073</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2228833695549852</v>
       </c>
       <c r="N5">
-        <v>0.388177955463803</v>
+        <v>0.0198079709948864</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.02823759022044</v>
+        <v>0.4079972399244554</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9620597825575814</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.723808856708786</v>
+        <v>2.513798076686214</v>
       </c>
       <c r="C6">
-        <v>0.4745301068310255</v>
+        <v>0.5157588574873841</v>
       </c>
       <c r="D6">
-        <v>0.1966067961558053</v>
+        <v>0.1941137287959265</v>
       </c>
       <c r="E6">
-        <v>0.03840384722863543</v>
+        <v>0.03778908449679275</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.421137244513673</v>
+        <v>1.221286772481321</v>
       </c>
       <c r="H6">
-        <v>0.01674072832820062</v>
+        <v>0.01358919084441135</v>
       </c>
       <c r="I6">
-        <v>0.01396739190960794</v>
+        <v>0.01014529636437622</v>
       </c>
       <c r="J6">
-        <v>0.9202944759028213</v>
+        <v>0.8294402834613948</v>
       </c>
       <c r="K6">
-        <v>0.8521445122937337</v>
+        <v>0.7175840953403139</v>
       </c>
       <c r="L6">
-        <v>0.01841528114718827</v>
+        <v>0.322471285156368</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2219135373374996</v>
       </c>
       <c r="N6">
-        <v>0.3860611618049603</v>
+        <v>0.01966557533306279</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.029400415387006</v>
+        <v>0.4058076013464955</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9633261804922073</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.85087517754306</v>
+        <v>2.626350110109627</v>
       </c>
       <c r="C7">
-        <v>0.4989715461467483</v>
+        <v>0.5414663384968321</v>
       </c>
       <c r="D7">
-        <v>0.2014272437806568</v>
+        <v>0.1987207140258818</v>
       </c>
       <c r="E7">
-        <v>0.03928012421703464</v>
+        <v>0.03854666111399929</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.4569744090211</v>
+        <v>1.25208679265431</v>
       </c>
       <c r="H7">
-        <v>0.01521861096340055</v>
+        <v>0.01236869173135755</v>
       </c>
       <c r="I7">
-        <v>0.01270122025195874</v>
+        <v>0.009268879043465184</v>
       </c>
       <c r="J7">
-        <v>0.9357350451022057</v>
+        <v>0.8339775359236512</v>
       </c>
       <c r="K7">
-        <v>0.8645656721375943</v>
+        <v>0.7241269630043234</v>
       </c>
       <c r="L7">
-        <v>0.01946091712006748</v>
+        <v>0.3230525638254207</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2254646813807923</v>
       </c>
       <c r="N7">
-        <v>0.4017350445256653</v>
+        <v>0.02067650870124105</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.018647826214488</v>
+        <v>0.4215970580210779</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9534863844903061</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.41753962892318</v>
+        <v>3.132880510438895</v>
       </c>
       <c r="C8">
-        <v>0.60651754723267</v>
+        <v>0.6576343405347131</v>
       </c>
       <c r="D8">
-        <v>0.2229888975916197</v>
+        <v>0.2191544948019128</v>
       </c>
       <c r="E8">
-        <v>0.04317350045772272</v>
+        <v>0.0418591811114668</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.621838358220089</v>
+        <v>1.385011478683424</v>
       </c>
       <c r="H8">
-        <v>0.009520595400091689</v>
+        <v>0.007772350499212821</v>
       </c>
       <c r="I8">
-        <v>0.007848927496556968</v>
+        <v>0.005823402071788664</v>
       </c>
       <c r="J8">
-        <v>1.007463879390031</v>
+        <v>0.8757977342817611</v>
       </c>
       <c r="K8">
-        <v>0.9231655484268515</v>
+        <v>0.7586655816723606</v>
       </c>
       <c r="L8">
-        <v>0.02421415372165114</v>
+        <v>0.3274677641650072</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.244731036701701</v>
       </c>
       <c r="N8">
-        <v>0.4709034210055734</v>
+        <v>0.02531667079254518</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9730356824449347</v>
+        <v>0.492056319718273</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9120131277955705</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.542045458879386</v>
+        <v>4.142288745818917</v>
       </c>
       <c r="C9">
-        <v>0.8196609079231223</v>
+        <v>0.8931786748962338</v>
       </c>
       <c r="D9">
-        <v>0.2662648424475833</v>
+        <v>0.2598406556104891</v>
       </c>
       <c r="E9">
-        <v>0.05088261358036839</v>
+        <v>0.04828875001043365</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.962659677089277</v>
+        <v>1.644954188387288</v>
       </c>
       <c r="H9">
-        <v>0.002485838131229379</v>
+        <v>0.002063376265761585</v>
       </c>
       <c r="I9">
-        <v>0.00205928231341268</v>
+        <v>0.001702626119083561</v>
       </c>
       <c r="J9">
-        <v>1.157593745345906</v>
+        <v>0.9952215822527535</v>
       </c>
       <c r="K9">
-        <v>1.047045509789967</v>
+        <v>0.8371828157710794</v>
       </c>
       <c r="L9">
-        <v>0.0342430026235867</v>
+        <v>0.3380109489016334</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2930816875157021</v>
       </c>
       <c r="N9">
-        <v>0.6075141962458304</v>
+        <v>0.03509573127879406</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8889249772283705</v>
+        <v>0.6325389295176223</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8361545003934374</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.336692326414777</v>
+        <v>4.835366579049094</v>
       </c>
       <c r="C10">
-        <v>0.9792410144213761</v>
+        <v>1.059682297753852</v>
       </c>
       <c r="D10">
-        <v>0.294254785998092</v>
+        <v>0.2865330020539147</v>
       </c>
       <c r="E10">
-        <v>0.05514771671327701</v>
+        <v>0.05182763996755213</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.189364819736028</v>
+        <v>1.84254161953794</v>
       </c>
       <c r="H10">
-        <v>0.000511753983747365</v>
+        <v>0.0004884084128229382</v>
       </c>
       <c r="I10">
-        <v>0.0009197481426390652</v>
+        <v>0.00108815975611698</v>
       </c>
       <c r="J10">
-        <v>1.256477246665128</v>
+        <v>1.018075650907065</v>
       </c>
       <c r="K10">
-        <v>1.124107268875093</v>
+        <v>0.8757202927005423</v>
       </c>
       <c r="L10">
-        <v>0.04346506182784537</v>
+        <v>0.3372162262347516</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3254357636251939</v>
       </c>
       <c r="N10">
-        <v>0.6926536323385193</v>
+        <v>0.04390103166225501</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8269904822334126</v>
+        <v>0.7177651029498833</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7843927953493601</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.411903314138499</v>
+        <v>4.882094907270755</v>
       </c>
       <c r="C11">
-        <v>1.039717718159409</v>
+        <v>1.099931217864139</v>
       </c>
       <c r="D11">
-        <v>0.2697403905625748</v>
+        <v>0.2635284846294468</v>
       </c>
       <c r="E11">
-        <v>0.0467856463410028</v>
+        <v>0.0442724305204294</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.046316609875845</v>
+        <v>1.775983353648854</v>
       </c>
       <c r="H11">
-        <v>0.01897467940675668</v>
+        <v>0.01899272103536731</v>
       </c>
       <c r="I11">
-        <v>0.001433110257488934</v>
+        <v>0.001737800408132983</v>
       </c>
       <c r="J11">
-        <v>1.179065760315325</v>
+        <v>0.8520923459888365</v>
       </c>
       <c r="K11">
-        <v>1.027835149344099</v>
+        <v>0.7833766611742519</v>
       </c>
       <c r="L11">
-        <v>0.06233129758670941</v>
+        <v>0.2978795308846856</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2968961695503651</v>
       </c>
       <c r="N11">
-        <v>0.5919588332774595</v>
+        <v>0.0629623394387373</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7857163525675688</v>
+        <v>0.6098487142241567</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7779683024182589</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.314326033359976</v>
+        <v>4.792984557130183</v>
       </c>
       <c r="C12">
-        <v>1.054103246525813</v>
+        <v>1.100957606695204</v>
       </c>
       <c r="D12">
-        <v>0.2442806216041191</v>
+        <v>0.2391879954027445</v>
       </c>
       <c r="E12">
-        <v>0.04176969930925711</v>
+        <v>0.03982829648834674</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.88886734357834</v>
+        <v>1.669421964887903</v>
       </c>
       <c r="H12">
-        <v>0.05769840591371178</v>
+        <v>0.05772314717802374</v>
       </c>
       <c r="I12">
-        <v>0.001433578358853715</v>
+        <v>0.001737643207334827</v>
       </c>
       <c r="J12">
-        <v>1.098170562267001</v>
+        <v>0.7499153832781928</v>
       </c>
       <c r="K12">
-        <v>0.9384531948053976</v>
+        <v>0.7095916951906673</v>
       </c>
       <c r="L12">
-        <v>0.0815097947341954</v>
+        <v>0.269863555304596</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2700298046845973</v>
       </c>
       <c r="N12">
-        <v>0.4960103511637612</v>
+        <v>0.08226429414983727</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.775522896180183</v>
+        <v>0.5096853020735495</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7934684576250604</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.068468964637304</v>
+        <v>4.592548823711411</v>
       </c>
       <c r="C13">
-        <v>1.035776175885132</v>
+        <v>1.077780160635541</v>
       </c>
       <c r="D13">
-        <v>0.2165859955823493</v>
+        <v>0.2122240929830923</v>
       </c>
       <c r="E13">
-        <v>0.0389396060178766</v>
+        <v>0.03753109301817359</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.703501411557312</v>
+        <v>1.509810060067622</v>
       </c>
       <c r="H13">
-        <v>0.1136623013215541</v>
+        <v>0.1136572166402345</v>
       </c>
       <c r="I13">
-        <v>0.001398382958894828</v>
+        <v>0.001680080004448747</v>
       </c>
       <c r="J13">
-        <v>1.005965474181977</v>
+        <v>0.6967374541554676</v>
       </c>
       <c r="K13">
-        <v>0.8442951308503339</v>
+        <v>0.643271930195418</v>
       </c>
       <c r="L13">
-        <v>0.1017357891108617</v>
+        <v>0.2472291926723571</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2425456358269358</v>
       </c>
       <c r="N13">
-        <v>0.3994303128125694</v>
+        <v>0.1029689435344565</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7864269302244047</v>
+        <v>0.4112547031213722</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8218834279570757</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.828820097100788</v>
+        <v>4.400310357701926</v>
       </c>
       <c r="C14">
-        <v>1.00868631500083</v>
+        <v>1.050907667514821</v>
       </c>
       <c r="D14">
-        <v>0.1964983004353797</v>
+        <v>0.192510347102413</v>
       </c>
       <c r="E14">
-        <v>0.03832750001864849</v>
+        <v>0.03733127017428872</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.561587911436533</v>
+        <v>1.376429895986377</v>
       </c>
       <c r="H14">
-        <v>0.1632878826057862</v>
+        <v>0.163224475533994</v>
       </c>
       <c r="I14">
-        <v>0.001518158502298306</v>
+        <v>0.001761606096011725</v>
       </c>
       <c r="J14">
-        <v>0.9364693822493564</v>
+        <v>0.6772841501320386</v>
       </c>
       <c r="K14">
-        <v>0.7764796380088086</v>
+        <v>0.5994359367344799</v>
       </c>
       <c r="L14">
-        <v>0.1168987937409867</v>
+        <v>0.2332594498395686</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2230157456909296</v>
       </c>
       <c r="N14">
-        <v>0.3333776860732769</v>
+        <v>0.1187108462309823</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8046410776396762</v>
+        <v>0.3446761996407446</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8473706411602109</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.737313766070656</v>
+        <v>4.327386259551474</v>
       </c>
       <c r="C15">
-        <v>0.9957961631710361</v>
+        <v>1.039566189852223</v>
       </c>
       <c r="D15">
-        <v>0.1910197385425079</v>
+        <v>0.1870847071350852</v>
       </c>
       <c r="E15">
-        <v>0.03826654558842124</v>
+        <v>0.03740792295495199</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.519309679088195</v>
+        <v>1.332861391329203</v>
       </c>
       <c r="H15">
-        <v>0.1759436557597951</v>
+        <v>0.1758468132950526</v>
       </c>
       <c r="I15">
-        <v>0.001699335629062659</v>
+        <v>0.001935874889559486</v>
       </c>
       <c r="J15">
-        <v>0.9162676300356054</v>
+        <v>0.6791887913677357</v>
       </c>
       <c r="K15">
-        <v>0.7577053327469017</v>
+        <v>0.5887343246101935</v>
       </c>
       <c r="L15">
-        <v>0.1201057011612932</v>
+        <v>0.2302666395991828</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2176634562238462</v>
       </c>
       <c r="N15">
-        <v>0.3164441660334916</v>
+        <v>0.1221874712973303</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8122912309493664</v>
+        <v>0.3278957099029611</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8550270826392179</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.447687971573714</v>
+        <v>4.097314741452237</v>
       </c>
       <c r="C16">
-        <v>0.9314109743750407</v>
+        <v>0.9869279023047568</v>
       </c>
       <c r="D16">
-        <v>0.1852699517886975</v>
+        <v>0.181075359212798</v>
       </c>
       <c r="E16">
-        <v>0.0370681019012018</v>
+        <v>0.03651336108638281</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.459953581794679</v>
+        <v>1.246427320127111</v>
       </c>
       <c r="H16">
-        <v>0.1640509946136035</v>
+        <v>0.1637553695559291</v>
       </c>
       <c r="I16">
-        <v>0.002263047507888416</v>
+        <v>0.002318701627661568</v>
       </c>
       <c r="J16">
-        <v>0.892424816786729</v>
+        <v>0.7406729619459753</v>
       </c>
       <c r="K16">
-        <v>0.7435398199731225</v>
+        <v>0.5933431360750134</v>
       </c>
       <c r="L16">
-        <v>0.1112539250454176</v>
+        <v>0.2360813421851695</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2138204363103391</v>
       </c>
       <c r="N16">
-        <v>0.3027964132475631</v>
+        <v>0.1143376992144951</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8335512912291456</v>
+        <v>0.3166855703657632</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8612813747263743</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.351967424190889</v>
+        <v>4.018016215160799</v>
       </c>
       <c r="C17">
-        <v>0.8966581953277171</v>
+        <v>0.9586704860780344</v>
       </c>
       <c r="D17">
-        <v>0.1913070741551621</v>
+        <v>0.1867976500731316</v>
       </c>
       <c r="E17">
-        <v>0.0362054100319642</v>
+        <v>0.03558067511538754</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.488728725943588</v>
+        <v>1.254787598334161</v>
       </c>
       <c r="H17">
-        <v>0.1268156295553382</v>
+        <v>0.1263935421487474</v>
       </c>
       <c r="I17">
-        <v>0.002680448831643645</v>
+        <v>0.002616053929987316</v>
       </c>
       <c r="J17">
-        <v>0.9105948503573416</v>
+        <v>0.7910349798049765</v>
       </c>
       <c r="K17">
-        <v>0.7679954194857714</v>
+        <v>0.6188800028019514</v>
       </c>
       <c r="L17">
-        <v>0.09611263410706528</v>
+        <v>0.2479275640053658</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2204110716852021</v>
       </c>
       <c r="N17">
-        <v>0.326167354700118</v>
+        <v>0.09938393061025153</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8398566841677777</v>
+        <v>0.3420893055082672</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8548938788879568</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.41632664185255</v>
+        <v>4.070304286280191</v>
       </c>
       <c r="C18">
-        <v>0.881773555812515</v>
+        <v>0.9499239976968852</v>
       </c>
       <c r="D18">
-        <v>0.2088508463317282</v>
+        <v>0.2037413874798517</v>
       </c>
       <c r="E18">
-        <v>0.03694243938961073</v>
+        <v>0.03589234338396829</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.60247275046757</v>
+        <v>1.340936353560323</v>
       </c>
       <c r="H18">
-        <v>0.07408176458786642</v>
+        <v>0.07364045828163768</v>
       </c>
       <c r="I18">
-        <v>0.002520237092337396</v>
+        <v>0.002388762664698341</v>
       </c>
       <c r="J18">
-        <v>0.9698009941531041</v>
+        <v>0.8552434033046836</v>
       </c>
       <c r="K18">
-        <v>0.8325685719626037</v>
+        <v>0.6711533139640622</v>
       </c>
       <c r="L18">
-        <v>0.07614433408875243</v>
+        <v>0.2686483351757829</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2386219470752309</v>
       </c>
       <c r="N18">
-        <v>0.3880101551246042</v>
+        <v>0.07908274560696071</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8387194736192534</v>
+        <v>0.4065848309308535</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8388839213133075</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.593075477863238</v>
+        <v>4.216288520626563</v>
       </c>
       <c r="C19">
-        <v>0.8864670910771792</v>
+        <v>0.961407289878025</v>
       </c>
       <c r="D19">
-        <v>0.2352732258672319</v>
+        <v>0.2292851169324877</v>
       </c>
       <c r="E19">
-        <v>0.04097003051411718</v>
+        <v>0.03920765731647391</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.772481104686648</v>
+        <v>1.476073635877498</v>
       </c>
       <c r="H19">
-        <v>0.02842043532840677</v>
+        <v>0.02806208496299689</v>
       </c>
       <c r="I19">
-        <v>0.002434959431139028</v>
+        <v>0.002403139271018873</v>
       </c>
       <c r="J19">
-        <v>1.055568193944907</v>
+        <v>0.9301239345348904</v>
       </c>
       <c r="K19">
-        <v>0.9230448005128267</v>
+        <v>0.7403116034169201</v>
       </c>
       <c r="L19">
-        <v>0.05730340549427382</v>
+        <v>0.2946971304020281</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2644965478198102</v>
       </c>
       <c r="N19">
-        <v>0.4836329485228248</v>
+        <v>0.05954162373932093</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8393776872625933</v>
+        <v>0.5054891333217739</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8225807141414947</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.105280539173236</v>
+        <v>4.643987752048588</v>
       </c>
       <c r="C20">
-        <v>0.9413821674814926</v>
+        <v>1.025406554933397</v>
       </c>
       <c r="D20">
-        <v>0.2862872797464888</v>
+        <v>0.2786305463878449</v>
       </c>
       <c r="E20">
-        <v>0.0538043039109386</v>
+        <v>0.05062333895395099</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.111719653625386</v>
+        <v>1.759182746872455</v>
       </c>
       <c r="H20">
-        <v>0.0008285498915032719</v>
+        <v>0.0007320744698149362</v>
       </c>
       <c r="I20">
-        <v>0.001815415514682783</v>
+        <v>0.002054452301123888</v>
       </c>
       <c r="J20">
-        <v>1.22142494194631</v>
+        <v>1.036914906553847</v>
       </c>
       <c r="K20">
-        <v>1.0928191200938</v>
+        <v>0.8613148035454259</v>
       </c>
       <c r="L20">
-        <v>0.04107255790594877</v>
+        <v>0.3359211724958513</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3150374629184753</v>
       </c>
       <c r="N20">
-        <v>0.6704874306087873</v>
+        <v>0.04179809408638491</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8409570356862881</v>
+        <v>0.6968978993489117</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.797707393437646</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.769865830633535</v>
+        <v>5.16202779043283</v>
       </c>
       <c r="C21">
-        <v>1.067226453007891</v>
+        <v>1.129424658468679</v>
       </c>
       <c r="D21">
-        <v>0.3148516981542713</v>
+        <v>0.3076556887452995</v>
       </c>
       <c r="E21">
-        <v>0.05935004720032921</v>
+        <v>0.0558614611675079</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.335079891674354</v>
+        <v>2.036918029272357</v>
       </c>
       <c r="H21">
-        <v>1.22221258447297E-07</v>
+        <v>6.064121496507369E-06</v>
       </c>
       <c r="I21">
-        <v>0.001791417518941962</v>
+        <v>0.002118370374544654</v>
       </c>
       <c r="J21">
-        <v>1.321970869018344</v>
+        <v>0.9097170803976553</v>
       </c>
       <c r="K21">
-        <v>1.17823775285342</v>
+        <v>0.885488678189148</v>
       </c>
       <c r="L21">
-        <v>0.04651688111569285</v>
+        <v>0.3332660915357764</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3387337275373952</v>
       </c>
       <c r="N21">
-        <v>0.7621498696556444</v>
+        <v>0.04591997015008076</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7988535697598973</v>
+        <v>0.7820061604791135</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7597726733084595</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.198658847328147</v>
+        <v>5.489705814222248</v>
       </c>
       <c r="C22">
-        <v>1.147868224296474</v>
+        <v>1.192623183712385</v>
       </c>
       <c r="D22">
-        <v>0.3316354056062494</v>
+        <v>0.3249963256411235</v>
       </c>
       <c r="E22">
-        <v>0.06234850105109224</v>
+        <v>0.05878084746224133</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.475700545745582</v>
+        <v>2.225810933506523</v>
       </c>
       <c r="H22">
-        <v>0.0002547074801841909</v>
+        <v>0.0001272885714400651</v>
       </c>
       <c r="I22">
-        <v>0.002172039188307551</v>
+        <v>0.002245290960528834</v>
       </c>
       <c r="J22">
-        <v>1.385079310662462</v>
+        <v>0.8204962662646835</v>
       </c>
       <c r="K22">
-        <v>1.231517561428618</v>
+        <v>0.8972420397144631</v>
       </c>
       <c r="L22">
-        <v>0.05085998199911401</v>
+        <v>0.3300336724553503</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3531721428372379</v>
       </c>
       <c r="N22">
-        <v>0.8135306733548475</v>
+        <v>0.04937499639206067</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7714495403908455</v>
+        <v>0.8280826123602765</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7367078289217019</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.977758272745746</v>
+        <v>5.33033491141498</v>
       </c>
       <c r="C23">
-        <v>1.103036537718481</v>
+        <v>1.161114993877106</v>
       </c>
       <c r="D23">
-        <v>0.3228113097039369</v>
+        <v>0.3156121066570989</v>
       </c>
       <c r="E23">
-        <v>0.06080591285560466</v>
+        <v>0.05720068958155089</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.406728122007934</v>
+        <v>2.117609657440994</v>
       </c>
       <c r="H23">
-        <v>5.465156057748999E-05</v>
+        <v>1.751035519914623E-05</v>
       </c>
       <c r="I23">
-        <v>0.001607899956190373</v>
+        <v>0.001778507789365946</v>
       </c>
       <c r="J23">
-        <v>1.354432572133135</v>
+        <v>0.8906114537734595</v>
       </c>
       <c r="K23">
-        <v>1.206909029379531</v>
+        <v>0.8975439964378822</v>
       </c>
       <c r="L23">
-        <v>0.0485131968389787</v>
+        <v>0.3340466517984879</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3480806430118832</v>
       </c>
       <c r="N23">
-        <v>0.7856937277049951</v>
+        <v>0.04759939478185515</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7867420008138009</v>
+        <v>0.8041303405220219</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7483984976215563</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.131623896610847</v>
+        <v>4.666736115565243</v>
       </c>
       <c r="C24">
-        <v>0.938139333876336</v>
+        <v>1.022938496085601</v>
       </c>
       <c r="D24">
-        <v>0.2895060376888807</v>
+        <v>0.2817228855677882</v>
       </c>
       <c r="E24">
-        <v>0.05493353365784159</v>
+        <v>0.05164911252412807</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.13971134311933</v>
+        <v>1.781548797211116</v>
       </c>
       <c r="H24">
-        <v>0.0006622632502792936</v>
+        <v>0.0005716898441925355</v>
       </c>
       <c r="I24">
-        <v>0.001305665707945103</v>
+        <v>0.001448592177642816</v>
       </c>
       <c r="J24">
-        <v>1.235544016009072</v>
+        <v>1.05041567555611</v>
       </c>
       <c r="K24">
-        <v>1.109166040643991</v>
+        <v>0.874405040247936</v>
       </c>
       <c r="L24">
-        <v>0.04000505143318023</v>
+        <v>0.3408815056266761</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3198975813266642</v>
       </c>
       <c r="N24">
-        <v>0.6816985883051103</v>
+        <v>0.0406282389370638</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8447936896436747</v>
+        <v>0.7085386205741173</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7978731682313533</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.225289367194193</v>
+        <v>3.862787310655563</v>
       </c>
       <c r="C25">
-        <v>0.7639287064482119</v>
+        <v>0.8334908405546457</v>
       </c>
       <c r="D25">
-        <v>0.2542306857925922</v>
+        <v>0.2484098285622878</v>
       </c>
       <c r="E25">
-        <v>0.04870063979092976</v>
+        <v>0.0464393743831728</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.859874847048047</v>
+        <v>1.559292398078497</v>
       </c>
       <c r="H25">
-        <v>0.003924263227348179</v>
+        <v>0.00322372130534665</v>
       </c>
       <c r="I25">
-        <v>0.003606562102132393</v>
+        <v>0.002985851112253357</v>
       </c>
       <c r="J25">
-        <v>1.11160844787608</v>
+        <v>0.9718244007907231</v>
       </c>
       <c r="K25">
-        <v>1.007180436520429</v>
+        <v>0.8127291391142109</v>
       </c>
       <c r="L25">
-        <v>0.03145512122145533</v>
+        <v>0.3342194558007208</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2780547432260079</v>
       </c>
       <c r="N25">
-        <v>0.5709111470175969</v>
+        <v>0.03245933886470631</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9099424484863743</v>
+        <v>0.5954182372101116</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8560586435509308</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
